--- a/Excel Files/Individual States/Wisconsin - Golf Digest Top Courses in each State.xlsx
+++ b/Excel Files/Individual States/Wisconsin - Golf Digest Top Courses in each State.xlsx
@@ -1128,7 +1128,7 @@
         <v>53</v>
       </c>
       <c r="G17">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="s">
         <v>65</v>
